--- a/REGULAR/CITY MARKET/AMBAT, MARILOU.xlsx
+++ b/REGULAR/CITY MARKET/AMBAT, MARILOU.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="427">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1308,6 +1308,12 @@
   </si>
   <si>
     <t>8/1-9/2023</t>
+  </si>
+  <si>
+    <t>10/31 , 11/4/2023</t>
+  </si>
+  <si>
+    <t>10/16,17/2023</t>
   </si>
 </sst>
 </file>
@@ -2017,7 +2023,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K605" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K606" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2346,11 +2352,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K605"/>
+  <dimension ref="A2:K606"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <pane ySplit="3720" topLeftCell="A550" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="I559" sqref="I559"/>
+      <selection pane="bottomLeft" activeCell="K572" sqref="K572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,7 +2517,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>110.74000000000008</v>
+        <v>111.24000000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2521,7 +2527,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>230.04200000000003</v>
+        <v>230.54200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14785,13 +14791,15 @@
       <c r="B559" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="C559" s="13"/>
+      <c r="C559" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D559" s="39"/>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
-      <c r="G559" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G559" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H559" s="39">
         <v>7</v>
@@ -14807,13 +14815,15 @@
         <v>45170</v>
       </c>
       <c r="B560" s="20"/>
-      <c r="C560" s="13"/>
+      <c r="C560" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D560" s="39"/>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G560" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H560" s="39"/>
       <c r="I560" s="9"/>
@@ -14824,9 +14834,13 @@
       <c r="A561" s="40">
         <v>45200</v>
       </c>
-      <c r="B561" s="20"/>
+      <c r="B561" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C561" s="13"/>
-      <c r="D561" s="39"/>
+      <c r="D561" s="39">
+        <v>2</v>
+      </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
       <c r="G561" s="13" t="str">
@@ -14836,13 +14850,15 @@
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="20"/>
+      <c r="K561" s="20" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A562" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B562" s="20"/>
+      <c r="A562" s="40"/>
+      <c r="B562" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
       <c r="E562" s="9"/>
@@ -14851,14 +14867,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H562" s="39"/>
+      <c r="H562" s="39">
+        <v>2</v>
+      </c>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20"/>
+      <c r="K562" s="20" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -14876,7 +14896,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -14894,7 +14914,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -14912,7 +14932,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -14930,7 +14950,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -14948,7 +14968,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -14966,7 +14986,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -14984,7 +15004,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15002,7 +15022,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15020,7 +15040,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15038,7 +15058,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15056,7 +15076,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15074,7 +15094,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15092,7 +15112,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15110,7 +15130,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15128,7 +15148,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15146,7 +15166,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15164,7 +15184,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15182,7 +15202,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15200,7 +15220,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15218,7 +15238,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15236,7 +15256,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15254,7 +15274,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15272,7 +15292,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15290,7 +15310,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15308,7 +15328,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15326,7 +15346,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15344,7 +15364,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15362,7 +15382,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15380,7 +15400,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15398,7 +15418,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15416,7 +15436,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15434,7 +15454,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15452,7 +15472,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15470,7 +15490,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15488,7 +15508,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15506,7 +15526,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15523,7 +15543,9 @@
       <c r="K599" s="20"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A600" s="40"/>
+      <c r="A600" s="40">
+        <v>46357</v>
+      </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
       <c r="D600" s="39"/>
@@ -15603,20 +15625,36 @@
       <c r="K604" s="20"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="41"/>
-      <c r="B605" s="15"/>
-      <c r="C605" s="42"/>
-      <c r="D605" s="43"/>
+      <c r="A605" s="40"/>
+      <c r="B605" s="20"/>
+      <c r="C605" s="13"/>
+      <c r="D605" s="39"/>
       <c r="E605" s="9"/>
-      <c r="F605" s="15"/>
-      <c r="G605" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H605" s="43"/>
+      <c r="F605" s="20"/>
+      <c r="G605" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H605" s="39"/>
       <c r="I605" s="9"/>
-      <c r="J605" s="12"/>
-      <c r="K605" s="15"/>
+      <c r="J605" s="11"/>
+      <c r="K605" s="20"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A606" s="41"/>
+      <c r="B606" s="15"/>
+      <c r="C606" s="42"/>
+      <c r="D606" s="43"/>
+      <c r="E606" s="9"/>
+      <c r="F606" s="15"/>
+      <c r="G606" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H606" s="43"/>
+      <c r="I606" s="9"/>
+      <c r="J606" s="12"/>
+      <c r="K606" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
